--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4115716666666667</v>
+        <v>0.2534736666666667</v>
       </c>
       <c r="H2">
-        <v>1.234715</v>
+        <v>0.760421</v>
       </c>
       <c r="I2">
-        <v>0.002110162210096788</v>
+        <v>0.002252511003496746</v>
       </c>
       <c r="J2">
-        <v>0.002110162210096788</v>
+        <v>0.002252511003496746</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.79587766666667</v>
+        <v>30.60409033333334</v>
       </c>
       <c r="N2">
-        <v>53.38763299999999</v>
+        <v>91.81227100000001</v>
       </c>
       <c r="O2">
-        <v>0.1793479316144739</v>
+        <v>0.2776440509987301</v>
       </c>
       <c r="P2">
-        <v>0.179347931614474</v>
+        <v>0.27764405099873</v>
       </c>
       <c r="Q2">
-        <v>7.324279031066111</v>
+        <v>7.757330991787889</v>
       </c>
       <c r="R2">
-        <v>65.91851127959499</v>
+        <v>69.81597892609101</v>
       </c>
       <c r="S2">
-        <v>0.0003784532277518859</v>
+        <v>0.0006253962799300512</v>
       </c>
       <c r="T2">
-        <v>0.000378453227751886</v>
+        <v>0.000625396279930051</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4115716666666667</v>
+        <v>0.2534736666666667</v>
       </c>
       <c r="H3">
-        <v>1.234715</v>
+        <v>0.760421</v>
       </c>
       <c r="I3">
-        <v>0.002110162210096788</v>
+        <v>0.002252511003496746</v>
       </c>
       <c r="J3">
-        <v>0.002110162210096788</v>
+        <v>0.002252511003496746</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>217.185554</v>
       </c>
       <c r="O3">
-        <v>0.7296030503252249</v>
+        <v>0.6567779706806668</v>
       </c>
       <c r="P3">
-        <v>0.7296030503252251</v>
+        <v>0.6567779706806667</v>
       </c>
       <c r="Q3">
-        <v>29.79580681190111</v>
+        <v>18.35027290647044</v>
       </c>
       <c r="R3">
-        <v>268.16226130711</v>
+        <v>165.152456158234</v>
       </c>
       <c r="S3">
-        <v>0.001539580785167635</v>
+        <v>0.001479399605812465</v>
       </c>
       <c r="T3">
-        <v>0.001539580785167635</v>
+        <v>0.001479399605812465</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4115716666666667</v>
+        <v>0.2534736666666667</v>
       </c>
       <c r="H4">
-        <v>1.234715</v>
+        <v>0.760421</v>
       </c>
       <c r="I4">
-        <v>0.002110162210096788</v>
+        <v>0.002252511003496746</v>
       </c>
       <c r="J4">
-        <v>0.002110162210096788</v>
+        <v>0.002252511003496746</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.257112</v>
+        <v>0.371039</v>
       </c>
       <c r="N4">
-        <v>0.771336</v>
+        <v>1.113117</v>
       </c>
       <c r="O4">
-        <v>0.00259119028895291</v>
+        <v>0.003366111193519582</v>
       </c>
       <c r="P4">
-        <v>0.00259119028895291</v>
+        <v>0.003366111193519582</v>
       </c>
       <c r="Q4">
-        <v>0.10582001436</v>
+        <v>0.09404861580633332</v>
       </c>
       <c r="R4">
-        <v>0.95238012924</v>
+        <v>0.846437542257</v>
       </c>
       <c r="S4">
-        <v>5.467831826918206E-06</v>
+        <v>7.582202502396424E-06</v>
       </c>
       <c r="T4">
-        <v>5.467831826918207E-06</v>
+        <v>7.582202502396422E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4115716666666667</v>
+        <v>0.2534736666666667</v>
       </c>
       <c r="H5">
-        <v>1.234715</v>
+        <v>0.760421</v>
       </c>
       <c r="I5">
-        <v>0.002110162210096788</v>
+        <v>0.002252511003496746</v>
       </c>
       <c r="J5">
-        <v>0.002110162210096788</v>
+        <v>0.002252511003496746</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.314158666666666</v>
+        <v>6.687497333333333</v>
       </c>
       <c r="N5">
-        <v>24.942476</v>
+        <v>20.062492</v>
       </c>
       <c r="O5">
-        <v>0.08379059397414486</v>
+        <v>0.06066979382319835</v>
       </c>
       <c r="P5">
-        <v>0.08379059397414489</v>
+        <v>0.06066979382319834</v>
       </c>
       <c r="Q5">
-        <v>3.421872139371111</v>
+        <v>1.695104469903555</v>
       </c>
       <c r="R5">
-        <v>30.79684925434</v>
+        <v>15.255940229132</v>
       </c>
       <c r="S5">
-        <v>0.0001768117449658041</v>
+        <v>0.0001366593781666332</v>
       </c>
       <c r="T5">
-        <v>0.0001768117449658042</v>
+        <v>0.0001366593781666331</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4115716666666667</v>
+        <v>0.2534736666666667</v>
       </c>
       <c r="H6">
-        <v>1.234715</v>
+        <v>0.760421</v>
       </c>
       <c r="I6">
-        <v>0.002110162210096788</v>
+        <v>0.002252511003496746</v>
       </c>
       <c r="J6">
-        <v>0.002110162210096788</v>
+        <v>0.002252511003496746</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4631083333333333</v>
+        <v>0.1699793333333333</v>
       </c>
       <c r="N6">
-        <v>1.389325</v>
+        <v>0.509938</v>
       </c>
       <c r="O6">
-        <v>0.004667233797203165</v>
+        <v>0.001542073303885386</v>
       </c>
       <c r="P6">
-        <v>0.004667233797203166</v>
+        <v>0.001542073303885386</v>
       </c>
       <c r="Q6">
-        <v>0.1906022685972222</v>
+        <v>0.04308528487755556</v>
       </c>
       <c r="R6">
-        <v>1.715420417375</v>
+        <v>0.387767563898</v>
       </c>
       <c r="S6">
-        <v>9.848620384544656E-06</v>
+        <v>3.473537085200413E-06</v>
       </c>
       <c r="T6">
-        <v>9.848620384544656E-06</v>
+        <v>3.473537085200412E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>90.57905466666666</v>
+        <v>67.65743133333334</v>
       </c>
       <c r="H7">
-        <v>271.737164</v>
+        <v>202.972294</v>
       </c>
       <c r="I7">
-        <v>0.4644063565694702</v>
+        <v>0.6012423718439872</v>
       </c>
       <c r="J7">
-        <v>0.4644063565694702</v>
+        <v>0.6012423718439872</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.79587766666667</v>
+        <v>30.60409033333334</v>
       </c>
       <c r="N7">
-        <v>53.38763299999999</v>
+        <v>91.81227100000001</v>
       </c>
       <c r="O7">
-        <v>0.1793479316144739</v>
+        <v>0.2776440509987301</v>
       </c>
       <c r="P7">
-        <v>0.179347931614474</v>
+        <v>0.27764405099873</v>
       </c>
       <c r="Q7">
-        <v>1611.933776010312</v>
+        <v>2070.594140246631</v>
       </c>
       <c r="R7">
-        <v>14507.40398409281</v>
+        <v>18635.34726221968</v>
       </c>
       <c r="S7">
-        <v>0.08329031947934833</v>
+        <v>0.1669313677508494</v>
       </c>
       <c r="T7">
-        <v>0.08329031947934835</v>
+        <v>0.1669313677508494</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>90.57905466666666</v>
+        <v>67.65743133333334</v>
       </c>
       <c r="H8">
-        <v>271.737164</v>
+        <v>202.972294</v>
       </c>
       <c r="I8">
-        <v>0.4644063565694702</v>
+        <v>0.6012423718439872</v>
       </c>
       <c r="J8">
-        <v>0.4644063565694702</v>
+        <v>0.6012423718439872</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>217.185554</v>
       </c>
       <c r="O8">
-        <v>0.7296030503252249</v>
+        <v>0.6567779706806668</v>
       </c>
       <c r="P8">
-        <v>0.7296030503252251</v>
+        <v>0.6567779706806667</v>
       </c>
       <c r="Q8">
-        <v>6557.487389525428</v>
+        <v>4898.072235448986</v>
       </c>
       <c r="R8">
-        <v>59017.38650572886</v>
+        <v>44082.65011904087</v>
       </c>
       <c r="S8">
-        <v>0.3388322943435095</v>
+        <v>0.3948827448669248</v>
       </c>
       <c r="T8">
-        <v>0.3388322943435096</v>
+        <v>0.3948827448669247</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>90.57905466666666</v>
+        <v>67.65743133333334</v>
       </c>
       <c r="H9">
-        <v>271.737164</v>
+        <v>202.972294</v>
       </c>
       <c r="I9">
-        <v>0.4644063565694702</v>
+        <v>0.6012423718439872</v>
       </c>
       <c r="J9">
-        <v>0.4644063565694702</v>
+        <v>0.6012423718439872</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.257112</v>
+        <v>0.371039</v>
       </c>
       <c r="N9">
-        <v>0.771336</v>
+        <v>1.113117</v>
       </c>
       <c r="O9">
-        <v>0.00259119028895291</v>
+        <v>0.003366111193519582</v>
       </c>
       <c r="P9">
-        <v>0.00259119028895291</v>
+        <v>0.003366111193519582</v>
       </c>
       <c r="Q9">
-        <v>23.288961903456</v>
+        <v>25.10354566448866</v>
       </c>
       <c r="R9">
-        <v>209.600657131104</v>
+        <v>225.931910980398</v>
       </c>
       <c r="S9">
-        <v>0.001203365241270813</v>
+        <v>0.002023848677882308</v>
       </c>
       <c r="T9">
-        <v>0.001203365241270814</v>
+        <v>0.002023848677882308</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.57905466666666</v>
+        <v>67.65743133333334</v>
       </c>
       <c r="H10">
-        <v>271.737164</v>
+        <v>202.972294</v>
       </c>
       <c r="I10">
-        <v>0.4644063565694702</v>
+        <v>0.6012423718439872</v>
       </c>
       <c r="J10">
-        <v>0.4644063565694702</v>
+        <v>0.6012423718439872</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.314158666666666</v>
+        <v>6.687497333333333</v>
       </c>
       <c r="N10">
-        <v>24.942476</v>
+        <v>20.062492</v>
       </c>
       <c r="O10">
-        <v>0.08379059397414486</v>
+        <v>0.06066979382319835</v>
       </c>
       <c r="P10">
-        <v>0.08379059397414489</v>
+        <v>0.06066979382319834</v>
       </c>
       <c r="Q10">
-        <v>753.0886323753404</v>
+        <v>452.4588916218498</v>
       </c>
       <c r="R10">
-        <v>6777.797691378064</v>
+        <v>4072.130024596648</v>
       </c>
       <c r="S10">
-        <v>0.03891288446232442</v>
+        <v>0.03647725073754546</v>
       </c>
       <c r="T10">
-        <v>0.03891288446232443</v>
+        <v>0.03647725073754545</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>90.57905466666666</v>
+        <v>67.65743133333334</v>
       </c>
       <c r="H11">
-        <v>271.737164</v>
+        <v>202.972294</v>
       </c>
       <c r="I11">
-        <v>0.4644063565694702</v>
+        <v>0.6012423718439872</v>
       </c>
       <c r="J11">
-        <v>0.4644063565694702</v>
+        <v>0.6012423718439872</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4631083333333333</v>
+        <v>0.1699793333333333</v>
       </c>
       <c r="N11">
-        <v>1.389325</v>
+        <v>0.509938</v>
       </c>
       <c r="O11">
-        <v>0.004667233797203165</v>
+        <v>0.001542073303885386</v>
       </c>
       <c r="P11">
-        <v>0.004667233797203166</v>
+        <v>0.001542073303885386</v>
       </c>
       <c r="Q11">
-        <v>41.94791504158889</v>
+        <v>11.50036507308578</v>
       </c>
       <c r="R11">
-        <v>377.5312353743</v>
+        <v>103.503285657772</v>
       </c>
       <c r="S11">
-        <v>0.002167493043017015</v>
+        <v>0.0009271598107853432</v>
       </c>
       <c r="T11">
-        <v>0.002167493043017016</v>
+        <v>0.0009271598107853428</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>104.0520413333333</v>
+        <v>44.618475</v>
       </c>
       <c r="H12">
-        <v>312.156124</v>
+        <v>133.855425</v>
       </c>
       <c r="I12">
-        <v>0.533483481220433</v>
+        <v>0.396505117152516</v>
       </c>
       <c r="J12">
-        <v>0.533483481220433</v>
+        <v>0.3965051171525161</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.79587766666667</v>
+        <v>30.60409033333334</v>
       </c>
       <c r="N12">
-        <v>53.38763299999999</v>
+        <v>91.81227100000001</v>
       </c>
       <c r="O12">
-        <v>0.1793479316144739</v>
+        <v>0.2776440509987301</v>
       </c>
       <c r="P12">
-        <v>0.179347931614474</v>
+        <v>0.27764405099873</v>
       </c>
       <c r="Q12">
-        <v>1851.697398534943</v>
+        <v>1365.507839435575</v>
       </c>
       <c r="R12">
-        <v>16665.27658681449</v>
+        <v>12289.57055492018</v>
       </c>
       <c r="S12">
-        <v>0.0956791589073737</v>
+        <v>0.1100872869679506</v>
       </c>
       <c r="T12">
-        <v>0.09567915890737373</v>
+        <v>0.1100872869679506</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>104.0520413333333</v>
+        <v>44.618475</v>
       </c>
       <c r="H13">
-        <v>312.156124</v>
+        <v>133.855425</v>
       </c>
       <c r="I13">
-        <v>0.533483481220433</v>
+        <v>0.396505117152516</v>
       </c>
       <c r="J13">
-        <v>0.533483481220433</v>
+        <v>0.3965051171525161</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>217.185554</v>
       </c>
       <c r="O13">
-        <v>0.7296030503252249</v>
+        <v>0.6567779706806668</v>
       </c>
       <c r="P13">
-        <v>0.7296030503252251</v>
+        <v>0.6567779706806667</v>
       </c>
       <c r="Q13">
-        <v>7532.866747270298</v>
+        <v>3230.16273717005</v>
       </c>
       <c r="R13">
-        <v>67795.80072543269</v>
+        <v>29071.46463453045</v>
       </c>
       <c r="S13">
-        <v>0.3892311751965477</v>
+        <v>0.2604158262079295</v>
       </c>
       <c r="T13">
-        <v>0.3892311751965479</v>
+        <v>0.2604158262079295</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>104.0520413333333</v>
+        <v>44.618475</v>
       </c>
       <c r="H14">
-        <v>312.156124</v>
+        <v>133.855425</v>
       </c>
       <c r="I14">
-        <v>0.533483481220433</v>
+        <v>0.396505117152516</v>
       </c>
       <c r="J14">
-        <v>0.533483481220433</v>
+        <v>0.3965051171525161</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.257112</v>
+        <v>0.371039</v>
       </c>
       <c r="N14">
-        <v>0.771336</v>
+        <v>1.113117</v>
       </c>
       <c r="O14">
-        <v>0.00259119028895291</v>
+        <v>0.003366111193519582</v>
       </c>
       <c r="P14">
-        <v>0.00259119028895291</v>
+        <v>0.003366111193519582</v>
       </c>
       <c r="Q14">
-        <v>26.753028451296</v>
+        <v>16.555194345525</v>
       </c>
       <c r="R14">
-        <v>240.777256061664</v>
+        <v>148.996749109725</v>
       </c>
       <c r="S14">
-        <v>0.001382357215855178</v>
+        <v>0.001334680313134878</v>
       </c>
       <c r="T14">
-        <v>0.001382357215855178</v>
+        <v>0.001334680313134877</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>104.0520413333333</v>
+        <v>44.618475</v>
       </c>
       <c r="H15">
-        <v>312.156124</v>
+        <v>133.855425</v>
       </c>
       <c r="I15">
-        <v>0.533483481220433</v>
+        <v>0.396505117152516</v>
       </c>
       <c r="J15">
-        <v>0.533483481220433</v>
+        <v>0.3965051171525161</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.314158666666666</v>
+        <v>6.687497333333333</v>
       </c>
       <c r="N15">
-        <v>24.942476</v>
+        <v>20.062492</v>
       </c>
       <c r="O15">
-        <v>0.08379059397414486</v>
+        <v>0.06066979382319835</v>
       </c>
       <c r="P15">
-        <v>0.08379059397414489</v>
+        <v>0.06066979382319834</v>
       </c>
       <c r="Q15">
-        <v>865.1051812358913</v>
+        <v>298.3859325799</v>
       </c>
       <c r="R15">
-        <v>7785.946631123024</v>
+        <v>2685.4733932191</v>
       </c>
       <c r="S15">
-        <v>0.04470089776685463</v>
+        <v>0.02405588370748625</v>
       </c>
       <c r="T15">
-        <v>0.04470089776685465</v>
+        <v>0.02405588370748625</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>104.0520413333333</v>
+        <v>44.618475</v>
       </c>
       <c r="H16">
-        <v>312.156124</v>
+        <v>133.855425</v>
       </c>
       <c r="I16">
-        <v>0.533483481220433</v>
+        <v>0.396505117152516</v>
       </c>
       <c r="J16">
-        <v>0.533483481220433</v>
+        <v>0.3965051171525161</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4631083333333333</v>
+        <v>0.1699793333333333</v>
       </c>
       <c r="N16">
-        <v>1.389325</v>
+        <v>0.509938</v>
       </c>
       <c r="O16">
-        <v>0.004667233797203165</v>
+        <v>0.001542073303885386</v>
       </c>
       <c r="P16">
-        <v>0.004667233797203166</v>
+        <v>0.001542073303885386</v>
       </c>
       <c r="Q16">
-        <v>48.1873674418111</v>
+        <v>7.58421863485</v>
       </c>
       <c r="R16">
-        <v>433.6863069762999</v>
+        <v>68.25796771365</v>
       </c>
       <c r="S16">
-        <v>0.002489892133801605</v>
+        <v>0.0006114399560148423</v>
       </c>
       <c r="T16">
-        <v>0.002489892133801605</v>
+        <v>0.0006114399560148423</v>
       </c>
     </row>
   </sheetData>
